--- a/starter/src/main/resources/static/excel/kbase_faq.xlsx
+++ b/starter/src/main/resources/static/excel/kbase_faq.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="8940"/>
+    <workbookView windowHeight="17260"/>
   </bookViews>
   <sheets>
     <sheet name="自动回复" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,13 @@
     <t>分类(必填)</t>
   </si>
   <si>
-    <t>类型(五种类型：TEXT、IMAGE、VIDEO、AUDIO、FILE)</t>
+    <t>类型</t>
   </si>
   <si>
-    <t>关键词</t>
+    <t>常见问题</t>
   </si>
   <si>
-    <t>回复内容</t>
+    <t>答案</t>
   </si>
   <si>
     <t>分类1</t>
@@ -1061,13 +1061,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.0288461538462" customWidth="1"/>
-    <col min="2" max="2" width="58.8076923076923" customWidth="1"/>
+    <col min="2" max="2" width="21.9519230769231" customWidth="1"/>
     <col min="3" max="3" width="34.7788461538462" customWidth="1"/>
     <col min="4" max="4" width="52.4038461538462" customWidth="1"/>
   </cols>
